--- a/Test 03052020.xlsx
+++ b/Test 03052020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEREMY2852\Documents\GA Tech Data Analytics\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7172E7A0-55A6-4ED6-9E07-0E7BC8E86DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BCC87-0B1B-4A92-87E3-382E32E847A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC7F4E10-1B76-48E8-81F9-C0CBF1986899}"/>
   </bookViews>
@@ -28,6 +28,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>This is a test to see if I can push a homework file to GitHub</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,14 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADBE307-2460-4374-A46E-9F428D90F5DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test 03052020.xlsx
+++ b/Test 03052020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEREMY2852\Documents\GA Tech Data Analytics\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088BCC87-0B1B-4A92-87E3-382E32E847A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC8B79-9A18-4A2A-AACD-CB8BD5286454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC7F4E10-1B76-48E8-81F9-C0CBF1986899}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>This is a test to see if I can push a homework file to GitHub</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADBE307-2460-4374-A46E-9F428D90F5DB}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,6 +401,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test 03052020.xlsx
+++ b/Test 03052020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEREMY2852\Documents\GA Tech Data Analytics\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDC8B79-9A18-4A2A-AACD-CB8BD5286454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081137CF-020D-432E-9CC8-DA430DFC25D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC7F4E10-1B76-48E8-81F9-C0CBF1986899}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This is a test to see if I can push a homework file to GitHub</t>
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADBE307-2460-4374-A46E-9F428D90F5DB}">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,6 +409,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
